--- a/Karuta Workers v5.xlsx
+++ b/Karuta Workers v5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Google Drive\_Misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EC95C57-1AAF-47BC-9DC0-359DA46AF172}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{985D4716-5FBA-40A9-BA86-DEC9D555A7D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A37E586B-6D91-4C93-B2AB-83B6B4944AC2}"/>
   </bookViews>
@@ -806,8 +806,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -820,12 +846,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -853,26 +873,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2044,20 +2044,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="107" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="101" t="s">
+      <c r="B1" s="107" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="103" t="s">
+      <c r="C1" s="109" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
       <c r="G1" s="84"/>
-      <c r="H1" s="95" t="s">
+      <c r="H1" s="103" t="s">
         <v>29</v>
       </c>
       <c r="I1" s="87" t="s">
@@ -2067,25 +2067,25 @@
         <v>30</v>
       </c>
       <c r="K1" s="84"/>
-      <c r="L1" s="95" t="s">
+      <c r="L1" s="103" t="s">
         <v>29</v>
       </c>
-      <c r="M1" s="92" t="s">
+      <c r="M1" s="97" t="s">
         <v>93</v>
       </c>
-      <c r="N1" s="92"/>
+      <c r="N1" s="97"/>
       <c r="O1" s="84"/>
-      <c r="P1" s="95" t="s">
+      <c r="P1" s="103" t="s">
         <v>29</v>
       </c>
-      <c r="Q1" s="92" t="s">
+      <c r="Q1" s="97" t="s">
         <v>56</v>
       </c>
-      <c r="R1" s="92"/>
+      <c r="R1" s="97"/>
     </row>
     <row r="2" spans="1:18" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="102"/>
-      <c r="B2" s="102"/>
+      <c r="A2" s="108"/>
+      <c r="B2" s="108"/>
       <c r="C2" s="47" t="s">
         <v>39</v>
       </c>
@@ -2099,31 +2099,31 @@
         <v>42</v>
       </c>
       <c r="G2" s="85"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="112">
-        <v>2</v>
-      </c>
-      <c r="J2" s="112">
+      <c r="H2" s="104"/>
+      <c r="I2" s="92">
+        <v>2</v>
+      </c>
+      <c r="J2" s="92">
         <v>38</v>
       </c>
       <c r="K2" s="85"/>
-      <c r="L2" s="96"/>
-      <c r="M2" s="113">
+      <c r="L2" s="104"/>
+      <c r="M2" s="98">
         <v>25</v>
       </c>
-      <c r="N2" s="113"/>
+      <c r="N2" s="98"/>
       <c r="O2" s="85"/>
-      <c r="P2" s="96"/>
-      <c r="Q2" s="113">
+      <c r="P2" s="104"/>
+      <c r="Q2" s="98">
         <v>-73</v>
       </c>
-      <c r="R2" s="113"/>
+      <c r="R2" s="98"/>
     </row>
     <row r="3" spans="1:18" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="105" t="s">
+      <c r="A3" s="111" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="106"/>
+      <c r="B3" s="112"/>
       <c r="C3" s="49">
         <f>AVERAGE('Growth Data'!3:3)</f>
         <v>2.0694444444444446</v>
@@ -2141,32 +2141,32 @@
         <v>1.8790632774964966</v>
       </c>
       <c r="G3" s="84"/>
-      <c r="H3" s="98" t="s">
+      <c r="H3" s="100" t="s">
         <v>100</v>
       </c>
-      <c r="I3" s="107" t="str">
+      <c r="I3" s="113" t="str">
         <f>ROUND(J2*IF(I2=0,PRODUCT($C$3:$F$3),IF(I2=1,PRODUCT($D$3:$F$3), IF(I2=2,PRODUCT($E$3:$F$3),IF(I2=3,PRODUCT($F$3),1)))),2)&amp;" ± "&amp;ROUND(IF(I2=0,J2*SUM($C$5:$F$5),IF(I2=1,J2*SUM($D$5:$F$5),IF(I2=2,J2*SUM($E$5:$F$5),IF(I2=3,J2*SUM($F$5),0)))),2)</f>
         <v>134.59 ± 2.04</v>
       </c>
-      <c r="J3" s="107"/>
+      <c r="J3" s="113"/>
       <c r="K3" s="84"/>
-      <c r="L3" s="97" t="s">
+      <c r="L3" s="99" t="s">
         <v>57</v>
       </c>
-      <c r="M3" s="93">
+      <c r="M3" s="101">
         <f>(M2*5)</f>
         <v>125</v>
       </c>
-      <c r="N3" s="93"/>
+      <c r="N3" s="101"/>
       <c r="O3" s="84"/>
-      <c r="P3" s="97" t="s">
+      <c r="P3" s="99" t="s">
         <v>57</v>
       </c>
-      <c r="Q3" s="93">
+      <c r="Q3" s="101">
         <f>((Q2/-3)*5)</f>
         <v>121.66666666666666</v>
       </c>
-      <c r="R3" s="93"/>
+      <c r="R3" s="101"/>
     </row>
     <row r="4" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="22"/>
@@ -2190,17 +2190,17 @@
         <v>9.4306796081637806E-2</v>
       </c>
       <c r="G4" s="38"/>
-      <c r="H4" s="98"/>
-      <c r="I4" s="107"/>
-      <c r="J4" s="107"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="113"/>
+      <c r="J4" s="113"/>
       <c r="K4" s="38"/>
-      <c r="L4" s="98"/>
-      <c r="M4" s="94"/>
-      <c r="N4" s="94"/>
+      <c r="L4" s="100"/>
+      <c r="M4" s="102"/>
+      <c r="N4" s="102"/>
       <c r="O4" s="38"/>
-      <c r="P4" s="98"/>
-      <c r="Q4" s="94"/>
-      <c r="R4" s="94"/>
+      <c r="P4" s="100"/>
+      <c r="Q4" s="102"/>
+      <c r="R4" s="102"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="22"/>
@@ -2237,38 +2237,38 @@
       <c r="R5" s="38"/>
     </row>
     <row r="6" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="99" t="s">
+      <c r="A6" s="105" t="s">
         <v>78</v>
       </c>
-      <c r="B6" s="100"/>
+      <c r="B6" s="106"/>
       <c r="C6" s="81"/>
       <c r="D6" s="82"/>
       <c r="E6" s="82"/>
       <c r="F6" s="82"/>
       <c r="G6" s="38"/>
-      <c r="H6" s="95" t="s">
+      <c r="H6" s="103" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="92" t="s">
+      <c r="I6" s="97" t="s">
         <v>88</v>
       </c>
-      <c r="J6" s="92"/>
+      <c r="J6" s="97"/>
       <c r="K6" s="38"/>
-      <c r="L6" s="95" t="s">
+      <c r="L6" s="103" t="s">
         <v>29</v>
       </c>
-      <c r="M6" s="92" t="s">
+      <c r="M6" s="97" t="s">
         <v>87</v>
       </c>
-      <c r="N6" s="92"/>
+      <c r="N6" s="97"/>
       <c r="O6" s="38"/>
-      <c r="P6" s="95" t="s">
+      <c r="P6" s="103" t="s">
         <v>29</v>
       </c>
-      <c r="Q6" s="92" t="s">
+      <c r="Q6" s="97" t="s">
         <v>89</v>
       </c>
-      <c r="R6" s="92"/>
+      <c r="R6" s="97"/>
     </row>
     <row r="7" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="24" t="s">
@@ -2294,23 +2294,23 @@
         <v>1.9676467040496926</v>
       </c>
       <c r="G7" s="38"/>
-      <c r="H7" s="96"/>
-      <c r="I7" s="113">
+      <c r="H7" s="104"/>
+      <c r="I7" s="98">
         <v>100</v>
       </c>
-      <c r="J7" s="113"/>
+      <c r="J7" s="98"/>
       <c r="K7" s="38"/>
-      <c r="L7" s="96"/>
-      <c r="M7" s="113">
+      <c r="L7" s="104"/>
+      <c r="M7" s="98">
         <v>129</v>
       </c>
-      <c r="N7" s="113"/>
+      <c r="N7" s="98"/>
       <c r="O7" s="38"/>
-      <c r="P7" s="96"/>
-      <c r="Q7" s="113">
+      <c r="P7" s="104"/>
+      <c r="Q7" s="98">
         <v>171</v>
       </c>
-      <c r="R7" s="113"/>
+      <c r="R7" s="98"/>
     </row>
     <row r="8" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
@@ -2336,32 +2336,32 @@
         <v>#DIV/0!</v>
       </c>
       <c r="G8" s="38"/>
-      <c r="H8" s="97" t="s">
+      <c r="H8" s="99" t="s">
         <v>91</v>
       </c>
-      <c r="I8" s="93" t="str">
+      <c r="I8" s="101" t="str">
         <f>ROUND(I7*AVERAGE('Growth Data'!55:55),2)&amp;" ± "&amp;ROUND(_xlfn.STDEV.S('Growth Data'!55:55)/SQRT(COUNT('Growth Data'!55:55)),2)</f>
         <v>110.07 ± 0.01</v>
       </c>
-      <c r="J8" s="93"/>
+      <c r="J8" s="101"/>
       <c r="K8" s="38"/>
-      <c r="L8" s="97" t="s">
+      <c r="L8" s="99" t="s">
         <v>92</v>
       </c>
-      <c r="M8" s="93" t="str">
+      <c r="M8" s="101" t="str">
         <f>ROUND(M7*AVERAGE('Growth Data'!68:68),2)&amp;" ± "&amp;ROUND(_xlfn.STDEV.S('Growth Data'!68:68)/SQRT(COUNT('Growth Data'!68:68)),2)</f>
         <v>181.76 ± 0.03</v>
       </c>
-      <c r="N8" s="93"/>
+      <c r="N8" s="101"/>
       <c r="O8" s="38"/>
-      <c r="P8" s="97" t="s">
+      <c r="P8" s="99" t="s">
         <v>90</v>
       </c>
-      <c r="Q8" s="93" t="str">
+      <c r="Q8" s="101" t="str">
         <f>ROUND(Q7*PRODUCT(AVERAGE('Growth Data'!55:55),AVERAGE('Growth Data'!68:68)),2)&amp;" ± "&amp;ROUND(SUM(_xlfn.STDEV.S('Growth Data'!55:55)/SQRT(COUNT('Growth Data'!55:55)),_xlfn.STDEV.S('Growth Data'!68:68)/SQRT(COUNT('Growth Data'!68:68))),2)</f>
         <v>265.21 ± 0.04</v>
       </c>
-      <c r="R8" s="93"/>
+      <c r="R8" s="101"/>
     </row>
     <row r="9" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
@@ -2387,17 +2387,17 @@
         <v>#DIV/0!</v>
       </c>
       <c r="G9" s="38"/>
-      <c r="H9" s="98"/>
-      <c r="I9" s="94"/>
-      <c r="J9" s="94"/>
+      <c r="H9" s="100"/>
+      <c r="I9" s="102"/>
+      <c r="J9" s="102"/>
       <c r="K9" s="38"/>
-      <c r="L9" s="98"/>
-      <c r="M9" s="94"/>
-      <c r="N9" s="94"/>
+      <c r="L9" s="100"/>
+      <c r="M9" s="102"/>
+      <c r="N9" s="102"/>
       <c r="O9" s="38"/>
-      <c r="P9" s="98"/>
-      <c r="Q9" s="94"/>
-      <c r="R9" s="94"/>
+      <c r="P9" s="100"/>
+      <c r="Q9" s="102"/>
+      <c r="R9" s="102"/>
     </row>
     <row r="10" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
@@ -2459,21 +2459,21 @@
         <v>#DIV/0!</v>
       </c>
       <c r="G11" s="38"/>
-      <c r="H11" s="109" t="s">
+      <c r="H11" s="94" t="s">
         <v>101</v>
       </c>
-      <c r="I11" s="109"/>
-      <c r="J11" s="109"/>
+      <c r="I11" s="94"/>
+      <c r="J11" s="94"/>
       <c r="K11" s="38"/>
-      <c r="L11" s="108" t="s">
+      <c r="L11" s="93" t="s">
         <v>99</v>
       </c>
-      <c r="M11" s="108"/>
-      <c r="N11" s="108"/>
-      <c r="O11" s="108"/>
-      <c r="P11" s="108"/>
-      <c r="Q11" s="108"/>
-      <c r="R11" s="108"/>
+      <c r="M11" s="93"/>
+      <c r="N11" s="93"/>
+      <c r="O11" s="93"/>
+      <c r="P11" s="93"/>
+      <c r="Q11" s="93"/>
+      <c r="R11" s="93"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="s">
@@ -2499,21 +2499,21 @@
         <v>#DIV/0!</v>
       </c>
       <c r="G12" s="38"/>
-      <c r="H12" s="110" t="s">
+      <c r="H12" s="95" t="s">
         <v>96</v>
       </c>
-      <c r="I12" s="110"/>
+      <c r="I12" s="95"/>
       <c r="J12" s="90">
         <v>44100</v>
       </c>
       <c r="K12" s="38"/>
-      <c r="L12" s="108"/>
-      <c r="M12" s="108"/>
-      <c r="N12" s="108"/>
-      <c r="O12" s="108"/>
-      <c r="P12" s="108"/>
-      <c r="Q12" s="108"/>
-      <c r="R12" s="108"/>
+      <c r="L12" s="93"/>
+      <c r="M12" s="93"/>
+      <c r="N12" s="93"/>
+      <c r="O12" s="93"/>
+      <c r="P12" s="93"/>
+      <c r="Q12" s="93"/>
+      <c r="R12" s="93"/>
     </row>
     <row r="13" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
@@ -2542,18 +2542,18 @@
       <c r="H13" s="91" t="s">
         <v>97</v>
       </c>
-      <c r="I13" s="111" t="s">
+      <c r="I13" s="96" t="s">
         <v>98</v>
       </c>
-      <c r="J13" s="111"/>
+      <c r="J13" s="96"/>
       <c r="K13" s="38"/>
-      <c r="L13" s="108"/>
-      <c r="M13" s="108"/>
-      <c r="N13" s="108"/>
-      <c r="O13" s="108"/>
-      <c r="P13" s="108"/>
-      <c r="Q13" s="108"/>
-      <c r="R13" s="108"/>
+      <c r="L13" s="93"/>
+      <c r="M13" s="93"/>
+      <c r="N13" s="93"/>
+      <c r="O13" s="93"/>
+      <c r="P13" s="93"/>
+      <c r="Q13" s="93"/>
+      <c r="R13" s="93"/>
     </row>
     <row r="14" spans="1:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="24" t="s">
@@ -2658,6 +2658,28 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="37">
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="Q3:R4"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:N4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:J4"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="P6:P7"/>
     <mergeCell ref="L11:R13"/>
     <mergeCell ref="H11:J11"/>
     <mergeCell ref="H12:I12"/>
@@ -2673,28 +2695,6 @@
     <mergeCell ref="M7:N7"/>
     <mergeCell ref="L8:L9"/>
     <mergeCell ref="M8:N9"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:J4"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="Q3:R4"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:N4"/>
   </mergeCells>
   <conditionalFormatting sqref="C3:F3">
     <cfRule type="colorScale" priority="2">
